--- a/members.xlsx
+++ b/members.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>First name</t>
   </si>
@@ -34,16 +34,28 @@
     <t>Longitude</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Florian</t>
   </si>
   <si>
     <t>Privé</t>
   </si>
   <si>
+    <t>admin</t>
+  </si>
+  <si>
     <t>Magali</t>
   </si>
   <si>
     <t>Richard</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>member</t>
   </si>
 </sst>
 </file>
@@ -139,10 +151,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -163,13 +175,16 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>45.198445</v>
@@ -177,19 +192,42 @@
       <c r="D2" s="0" t="n">
         <v>5.748881</v>
       </c>
+      <c r="E2" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>45.198543</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>5.74894</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>45.19</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
